--- a/excel/battery.xlsx
+++ b/excel/battery.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yazawa\Documents\GitHub\murakumo\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonfa\Documents\GitHub\Murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5671E3D-7971-4321-92B7-6525E1806267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584829E-6F7D-4A20-BB9F-26BE881566EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -158,7 +159,7 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,7 +378,7 @@
   <dimension ref="A1:P999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6014,6 +6015,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>